--- a/Dual OTA VCA テスト表.xlsx
+++ b/Dual OTA VCA テスト表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Dual_OTA_VCA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="18195" windowHeight="11445"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="163">
   <si>
     <t>1) 電源なし ICなし</t>
     <phoneticPr fontId="2"/>
@@ -41,10 +46,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>2017.08.21</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IC1-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -469,10 +470,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>C15-+</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>JP12-2</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -642,14 +639,46 @@
   </si>
   <si>
     <t>+5.08V</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.04.03 #1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PCB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>R15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C5-</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C15+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2018.04.04</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +756,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -773,7 +810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -805,9 +842,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -839,6 +877,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1014,17 +1053,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A143" sqref="A143"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
@@ -1032,18 +1071,18 @@
     <col min="5" max="6" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1052,31 +1091,34 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:6" s="3" customFormat="1">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="3" customFormat="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" s="3" customFormat="1">
-      <c r="A7" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1090,1978 +1132,2322 @@
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>1</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>9</v>
       </c>
       <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>17</v>
       </c>
-      <c r="C17" t="s">
-        <v>18</v>
-      </c>
       <c r="D17" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>157</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>13</v>
       </c>
       <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
       <c r="D21" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>15</v>
       </c>
       <c r="B23" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>17</v>
       </c>
       <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" t="s">
         <v>31</v>
       </c>
-      <c r="C25" t="s">
-        <v>32</v>
-      </c>
       <c r="D25" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>19</v>
       </c>
       <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
       <c r="D27" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>20</v>
       </c>
       <c r="B28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
       <c r="D28" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>21</v>
       </c>
       <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
       <c r="D29" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>22</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>23</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="3">
         <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="3">
         <v>25</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>26</v>
       </c>
       <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
         <v>44</v>
       </c>
-      <c r="C34" t="s">
-        <v>45</v>
-      </c>
       <c r="D34" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>28</v>
       </c>
       <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
-        <v>48</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>29</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>30</v>
       </c>
       <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
       <c r="D38" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>31</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D39" t="s">
         <v>53</v>
       </c>
-      <c r="D39" t="s">
-        <v>54</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" t="s">
         <v>55</v>
       </c>
-      <c r="D40" t="s">
-        <v>56</v>
-      </c>
       <c r="E40" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>33</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="3">
         <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" s="3">
         <v>35</v>
       </c>
       <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
         <v>58</v>
       </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" s="3">
         <v>36</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" s="3">
         <v>37</v>
       </c>
       <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
         <v>60</v>
       </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
       <c r="D45" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" s="3">
         <v>38</v>
       </c>
       <c r="B46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" s="3">
         <v>39</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" s="3">
         <v>40</v>
       </c>
       <c r="B48" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" t="s">
         <v>64</v>
       </c>
-      <c r="C48" t="s">
-        <v>65</v>
-      </c>
       <c r="D48" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" s="3">
         <v>41</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" s="3">
         <v>42</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" s="3">
         <v>43</v>
       </c>
       <c r="B51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" t="s">
         <v>67</v>
       </c>
-      <c r="C51" t="s">
-        <v>68</v>
-      </c>
       <c r="D51" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" s="3">
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" s="3">
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" s="3">
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" s="3">
         <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" s="3">
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" s="3">
         <v>49</v>
       </c>
       <c r="B57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" s="3">
         <v>50</v>
       </c>
       <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
         <v>74</v>
       </c>
-      <c r="C58" t="s">
-        <v>75</v>
-      </c>
       <c r="D58" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" s="3">
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" s="3">
         <v>52</v>
       </c>
       <c r="B60" t="s">
+        <v>76</v>
+      </c>
+      <c r="C60" t="s">
         <v>77</v>
       </c>
-      <c r="C60" t="s">
-        <v>78</v>
-      </c>
       <c r="D60" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" s="3">
         <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" s="3">
         <v>54</v>
       </c>
       <c r="B62" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" s="3">
         <v>55</v>
       </c>
       <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
         <v>85</v>
       </c>
-      <c r="C63" t="s">
-        <v>86</v>
-      </c>
       <c r="D63" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" s="3">
         <v>56</v>
       </c>
       <c r="B64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" s="3">
         <v>57</v>
       </c>
       <c r="B65" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" t="s">
         <v>79</v>
       </c>
-      <c r="C65" t="s">
-        <v>80</v>
-      </c>
       <c r="D65" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" s="3">
         <v>58</v>
       </c>
       <c r="B66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C66" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" s="3">
         <v>59</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" s="3">
         <v>60</v>
       </c>
       <c r="B68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" t="s">
         <v>82</v>
       </c>
-      <c r="C68" t="s">
-        <v>83</v>
-      </c>
       <c r="D68" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" s="3">
         <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C69" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" s="3">
         <v>62</v>
       </c>
       <c r="B70" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" s="3">
         <v>63</v>
       </c>
       <c r="B71" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" s="3">
         <v>64</v>
       </c>
       <c r="B72" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" s="3">
         <v>65</v>
       </c>
       <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
         <v>92</v>
       </c>
-      <c r="C73" t="s">
-        <v>93</v>
-      </c>
       <c r="D73" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" s="3">
         <v>66</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" s="3">
         <v>67</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" s="3">
         <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" s="3">
         <v>69</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" s="3">
         <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" s="3">
         <v>71</v>
       </c>
       <c r="B79" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" s="3">
         <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" s="3">
         <v>73</v>
       </c>
       <c r="B81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" s="3">
         <v>74</v>
       </c>
       <c r="B82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C82" t="s">
         <v>107</v>
       </c>
-      <c r="C82" t="s">
-        <v>108</v>
-      </c>
       <c r="D82" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" s="3">
         <v>75</v>
       </c>
       <c r="B83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C83" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" s="3">
         <v>76</v>
       </c>
       <c r="B84" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" t="s">
         <v>110</v>
       </c>
-      <c r="C84" t="s">
-        <v>111</v>
-      </c>
       <c r="D84" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" s="3">
         <v>77</v>
       </c>
       <c r="B85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" s="3">
         <v>78</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" s="3">
         <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>160</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" s="3">
         <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E88" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>143</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" s="3">
         <v>81</v>
       </c>
       <c r="B89" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" t="s">
         <v>114</v>
       </c>
-      <c r="C89" t="s">
-        <v>116</v>
-      </c>
       <c r="D89" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" s="3">
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" s="3">
         <v>83</v>
       </c>
       <c r="B91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" s="3">
         <v>84</v>
       </c>
       <c r="B92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C92" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" s="3">
         <v>85</v>
       </c>
       <c r="B93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C93" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" s="3">
         <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>144</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" s="3">
         <v>87</v>
       </c>
       <c r="B95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C95" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" s="3">
         <v>88</v>
       </c>
       <c r="B96" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C96" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" s="3">
         <v>89</v>
       </c>
       <c r="B97" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" s="3">
         <v>90</v>
       </c>
       <c r="B98" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" s="3">
         <v>91</v>
       </c>
       <c r="B99" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" s="3">
         <v>92</v>
       </c>
       <c r="B100" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C100" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" s="3">
         <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" s="3">
         <v>94</v>
       </c>
       <c r="B102" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C102" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" s="3">
         <v>95</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" s="3">
         <v>96</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" s="3">
         <v>97</v>
       </c>
       <c r="B105" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" s="3">
         <v>98</v>
       </c>
       <c r="B106" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" s="3">
         <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" s="3">
         <v>100</v>
       </c>
       <c r="B108" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" s="3">
         <v>101</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" s="3">
         <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>138</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" s="3">
         <v>103</v>
       </c>
       <c r="B111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>146</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" s="3">
         <v>104</v>
       </c>
       <c r="B112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>147</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" s="3">
         <v>105</v>
       </c>
       <c r="B113" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" s="3">
         <v>106</v>
       </c>
       <c r="B114" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" s="3">
         <v>107</v>
       </c>
       <c r="B115" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" s="3">
         <v>108</v>
       </c>
       <c r="B116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
+        <v>144</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" s="3">
         <v>109</v>
       </c>
       <c r="B117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C117" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" s="3">
         <v>110</v>
       </c>
       <c r="B118" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>148</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" s="3">
         <v>111</v>
       </c>
       <c r="B119" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C119" t="s">
+        <v>127</v>
+      </c>
+      <c r="D119" t="s">
         <v>129</v>
       </c>
-      <c r="D119" t="s">
-        <v>131</v>
-      </c>
       <c r="E119" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>149</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" s="3">
         <v>112</v>
       </c>
       <c r="B120" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" s="3">
         <v>113</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" s="3">
         <v>114</v>
       </c>
       <c r="B122" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" s="3">
         <v>115</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
+        <v>138</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" s="1" t="s">
         <v>1</v>
       </c>
@@ -3075,265 +3461,265 @@
         <v>4</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>1</v>
       </c>
       <c r="B127" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C127" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D127" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E127" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>2</v>
       </c>
       <c r="B128" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C128" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E128" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C129" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E129" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>4</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E130" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C131" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E131" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A132">
         <v>6</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A133">
         <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A134">
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C134" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A135">
         <v>9</v>
       </c>
       <c r="B135" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C135" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A136">
         <v>10</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C136" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A137">
         <v>11</v>
       </c>
       <c r="B137" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C137" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A138">
         <v>12</v>
       </c>
       <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C138" t="s">
-        <v>10</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="E138" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A139">
         <v>13</v>
       </c>
       <c r="B139" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C139" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A140">
         <v>14</v>
       </c>
       <c r="B140" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C140" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A141">
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C141" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3345,12 +3731,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3358,12 +3744,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
